--- a/importFlights.xlsx
+++ b/importFlights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\IdeaProjects\Projects\unit3-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F49182F-3051-4009-BF21-B855950FA6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0332B574-4F57-40C7-A4F7-E6758CE0C5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>rf56</t>
   </si>
@@ -78,9 +78,6 @@
     <t>California</t>
   </si>
   <si>
-    <t>05/02/2021</t>
-  </si>
-  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>sevillaa</t>
   </si>
   <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
     <t>15:00</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Lima, Peru</t>
   </si>
   <si>
-    <t>14/06/2021</t>
-  </si>
-  <si>
     <t>5:50</t>
   </si>
   <si>
@@ -130,6 +121,18 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>On time</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>No comments yet</t>
   </si>
 </sst>
 </file>
@@ -179,11 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J7" sqref="J7:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,9 +483,10 @@
     <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,13 +511,19 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -530,13 +543,19 @@
       <c r="H2" s="3">
         <v>0.95833333333333337</v>
       </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -556,13 +575,19 @@
       <c r="H3" s="3">
         <v>0.79166666666666663</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -573,66 +598,84 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2">
+        <v>44232</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="2">
+        <v>44328</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="2">
+        <v>44361</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
